--- a/input/scheduling-logic/TB DAK_scheduling logic.xlsx
+++ b/input/scheduling-logic/TB DAK_scheduling logic.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/DigitalAcceleratorKits/Shared Documents/TB DAK/Files sent to editors/Round 2/Files received and reviewed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rawlanir\Documents\WHO\Github\smart-dak-tb\input\scheduling-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3880" documentId="13_ncr:1_{9A6594A1-E798-904B-B625-9D215846692B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D64380E1-EE8D-4AC1-96EB-328D41741B45}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF2C9BB-1DFC-4B37-AAB5-BE632C63D3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D729ECD-ABB9-4D06-ACD8-AACFCEA5F9F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D729ECD-ABB9-4D06-ACD8-AACFCEA5F9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="75" r:id="rId1"/>
@@ -817,11 +817,6 @@
     <t xml:space="preserve">Scheduling logic </t>
   </si>
   <si>
-    <t xml:space="preserve">smart.who.int/dak/tb/v1.0.0/TB DAK_scheduling logic.xlsx
-© World Health Organization 2024. Some rights reserved. This work is available under the
-</t>
-  </si>
-  <si>
     <t>Operational handbook – Module 4: drug-susceptible TB treatment (1)</t>
   </si>
   <si>
@@ -896,6 +891,11 @@
       </rPr>
       <t>(2)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAFT
+© World Health Organization 2024. Some rights reserved. This work is available under the
+</t>
   </si>
 </sst>
 </file>
@@ -1516,19 +1516,52 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1536,39 +1569,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1652,9 +1652,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1692,7 +1692,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1798,7 +1798,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1940,7 +1940,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1953,15 +1953,17 @@
   </sheetPr>
   <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="3" style="6" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31.796875" style="6" customWidth="1"/>
     <col min="3" max="3" width="14" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28.08203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.09765625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="50.296875" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -2033,13 +2035,13 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="2:5" ht="16" thickBot="1">
+    <row r="12" spans="2:5" ht="16.2" thickBot="1">
       <c r="B12" s="38"/>
       <c r="C12" s="9"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
     </row>
-    <row r="13" spans="2:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="2:5" ht="16.8" thickTop="1" thickBot="1">
       <c r="B13" s="20" t="s">
         <v>2</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="59" thickTop="1" thickBot="1">
+    <row r="14" spans="2:5" ht="58.8" thickTop="1" thickBot="1">
       <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
@@ -2064,13 +2066,13 @@
         <v>119</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="16" thickTop="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="16.2" thickTop="1"/>
     <row r="16" spans="2:5" s="12" customFormat="1" ht="29.25" customHeight="1">
       <c r="B16" s="45" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -2107,19 +2109,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.08203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.58203125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="20.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.59765625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="20.59765625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.296875" style="4" customWidth="1"/>
     <col min="9" max="9" width="29.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="31.58203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="23.58203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="40.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="31.59765625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="23.59765625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="40.796875" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2239,59 +2241,59 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14.5" style="42" customWidth="1"/>
-    <col min="2" max="2" width="16.08203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.796875" style="4" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.296875" style="4" customWidth="1"/>
     <col min="6" max="6" width="10" style="4" customWidth="1"/>
-    <col min="7" max="8" width="9.08203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="26.58203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="38.08203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="24.58203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="40.83203125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="9.09765625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="26.59765625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="38.09765625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="24.59765625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="40.796875" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.149999999999999" customHeight="1">
+    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.149999999999999" customHeight="1">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-    </row>
-    <row r="3" spans="1:15" s="40" customFormat="1" ht="35.15" customHeight="1">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+    </row>
+    <row r="3" spans="1:15" s="40" customFormat="1" ht="35.1" customHeight="1">
       <c r="A3" s="41" t="s">
         <v>54</v>
       </c>
@@ -2330,42 +2332,42 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="25" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="61"/>
     </row>
     <row r="5" spans="1:15" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:15" ht="85" customHeight="1" outlineLevel="1">
+    <row r="6" spans="1:15" ht="85.05" customHeight="1" outlineLevel="1">
       <c r="A6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="56" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -2389,20 +2391,20 @@
       <c r="I6" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="56" t="s">
         <v>120</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="56" t="s">
         <v>131</v>
       </c>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="1:15" ht="85" customHeight="1" outlineLevel="1">
+    <row r="7" spans="1:15" ht="85.05" customHeight="1" outlineLevel="1">
       <c r="A7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="23" t="s">
         <v>129</v>
       </c>
@@ -2424,16 +2426,16 @@
       <c r="I7" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="52"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="52"/>
+      <c r="L7" s="56"/>
       <c r="O7" s="30"/>
     </row>
     <row r="8" spans="1:15" ht="85.5" customHeight="1" outlineLevel="1">
       <c r="A8" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="23" t="s">
         <v>75</v>
       </c>
@@ -2455,16 +2457,16 @@
       <c r="I8" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="52"/>
+      <c r="J8" s="56"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="52"/>
+      <c r="L8" s="56"/>
       <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="85.5" customHeight="1" outlineLevel="1">
       <c r="A9" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="23" t="s">
         <v>75</v>
       </c>
@@ -2486,16 +2488,16 @@
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="52"/>
+      <c r="J9" s="56"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="52"/>
+      <c r="L9" s="56"/>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" ht="80.150000000000006" customHeight="1" outlineLevel="1">
+    <row r="10" spans="1:15" ht="80.099999999999994" customHeight="1" outlineLevel="1">
       <c r="A10" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="56" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -2519,16 +2521,16 @@
       <c r="I10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="52"/>
+      <c r="J10" s="56"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="52"/>
+      <c r="L10" s="56"/>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" ht="85" customHeight="1" outlineLevel="1">
+    <row r="11" spans="1:15" ht="85.05" customHeight="1" outlineLevel="1">
       <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="52"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="23" t="s">
         <v>75</v>
       </c>
@@ -2550,16 +2552,16 @@
       <c r="I11" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="52"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="52"/>
+      <c r="L11" s="56"/>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:15" ht="81.650000000000006" customHeight="1" outlineLevel="1">
+    <row r="12" spans="1:15" ht="81.599999999999994" customHeight="1" outlineLevel="1">
       <c r="A12" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="23" t="s">
         <v>75</v>
       </c>
@@ -2581,16 +2583,16 @@
       <c r="I12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="52"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="52"/>
+      <c r="L12" s="56"/>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:15" ht="80.5" customHeight="1" outlineLevel="1">
+    <row r="13" spans="1:15" ht="80.55" customHeight="1" outlineLevel="1">
       <c r="A13" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="23" t="s">
         <v>75</v>
       </c>
@@ -2612,12 +2614,12 @@
       <c r="I13" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="53"/>
+      <c r="J13" s="57"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="52"/>
+      <c r="L13" s="56"/>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:15" ht="145" customHeight="1" outlineLevel="1">
+    <row r="14" spans="1:15" ht="145.05000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="23" t="s">
         <v>78</v>
       </c>
@@ -2649,14 +2651,14 @@
         <v>83</v>
       </c>
       <c r="K14" s="24"/>
-      <c r="L14" s="52"/>
+      <c r="L14" s="56"/>
       <c r="O14" s="30"/>
     </row>
     <row r="15" spans="1:15" ht="54" customHeight="1" outlineLevel="1">
       <c r="A15" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="62" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -2680,18 +2682,18 @@
       <c r="I15" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="58" t="s">
         <v>85</v>
       </c>
       <c r="K15" s="24"/>
-      <c r="L15" s="52"/>
+      <c r="L15" s="56"/>
       <c r="O15" s="30"/>
     </row>
-    <row r="16" spans="1:15" ht="53.15" customHeight="1" outlineLevel="1">
+    <row r="16" spans="1:15" ht="53.1" customHeight="1" outlineLevel="1">
       <c r="A16" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="65"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="23" t="s">
         <v>75</v>
       </c>
@@ -2713,16 +2715,16 @@
       <c r="I16" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="52"/>
+      <c r="J16" s="56"/>
       <c r="K16" s="24"/>
-      <c r="L16" s="52"/>
+      <c r="L16" s="56"/>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="1:15" ht="61" customHeight="1" outlineLevel="1">
+    <row r="17" spans="1:15" ht="61.05" customHeight="1" outlineLevel="1">
       <c r="A17" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="66"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="23" t="s">
         <v>75</v>
       </c>
@@ -2744,41 +2746,41 @@
       <c r="I17" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="53"/>
+      <c r="J17" s="57"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="52"/>
+      <c r="L17" s="56"/>
       <c r="O17" s="30"/>
     </row>
     <row r="18" spans="1:15" s="25" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="61"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="55"/>
     </row>
     <row r="19" spans="1:15" s="25" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
       <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:15" ht="81" customHeight="1" outlineLevel="1">
@@ -2809,11 +2811,11 @@
       <c r="I20" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="51" t="s">
+      <c r="J20" s="58" t="s">
         <v>101</v>
       </c>
       <c r="K20" s="31"/>
-      <c r="L20" s="51" t="s">
+      <c r="L20" s="58" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2845,11 +2847,11 @@
       <c r="I21" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="53"/>
+      <c r="J21" s="57"/>
       <c r="K21" s="31"/>
-      <c r="L21" s="52"/>
-    </row>
-    <row r="22" spans="1:15" ht="172" customHeight="1" outlineLevel="1">
+      <c r="L21" s="56"/>
+    </row>
+    <row r="22" spans="1:15" ht="172.05" customHeight="1" outlineLevel="1">
       <c r="A22" s="23" t="s">
         <v>78</v>
       </c>
@@ -2881,7 +2883,7 @@
         <v>93</v>
       </c>
       <c r="K22" s="31"/>
-      <c r="L22" s="52"/>
+      <c r="L22" s="56"/>
     </row>
     <row r="23" spans="1:15" ht="126" customHeight="1" outlineLevel="1">
       <c r="A23" s="23" t="s">
@@ -2915,47 +2917,47 @@
         <v>94</v>
       </c>
       <c r="K23" s="31"/>
-      <c r="L23" s="53"/>
+      <c r="L23" s="57"/>
     </row>
     <row r="24" spans="1:15" s="25" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="61"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="55"/>
       <c r="O24" s="30"/>
     </row>
     <row r="25" spans="1:15" s="25" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="33"/>
       <c r="O25" s="30"/>
     </row>
-    <row r="26" spans="1:15" ht="67" customHeight="1" outlineLevel="1">
+    <row r="26" spans="1:15" ht="67.05" customHeight="1" outlineLevel="1">
       <c r="A26" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="67" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="23" t="s">
@@ -2964,7 +2966,7 @@
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="67" t="s">
         <v>99</v>
       </c>
       <c r="F26" s="26" t="s">
@@ -2979,11 +2981,11 @@
       <c r="I26" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="51" t="s">
+      <c r="J26" s="58" t="s">
         <v>100</v>
       </c>
       <c r="K26" s="23"/>
-      <c r="L26" s="51" t="s">
+      <c r="L26" s="58" t="s">
         <v>133</v>
       </c>
       <c r="N26" s="30"/>
@@ -2993,14 +2995,14 @@
       <c r="A27" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="56"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="56"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="26" t="s">
         <v>60</v>
       </c>
@@ -3013,17 +3015,17 @@
       <c r="I27" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="53"/>
+      <c r="J27" s="57"/>
       <c r="K27" s="24"/>
-      <c r="L27" s="52"/>
+      <c r="L27" s="56"/>
       <c r="N27" s="30"/>
       <c r="O27" s="30"/>
     </row>
-    <row r="28" spans="1:15" ht="88" customHeight="1" outlineLevel="1">
+    <row r="28" spans="1:15" ht="88.05" customHeight="1" outlineLevel="1">
       <c r="A28" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -3032,7 +3034,7 @@
       <c r="D28" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="67" t="s">
         <v>109</v>
       </c>
       <c r="F28" s="26" t="s">
@@ -3047,28 +3049,28 @@
       <c r="I28" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J28" s="56" t="s">
+      <c r="J28" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="K28" s="51" t="s">
+      <c r="K28" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="52"/>
+      <c r="L28" s="56"/>
       <c r="N28" s="30"/>
       <c r="O28" s="30"/>
     </row>
-    <row r="29" spans="1:15" ht="88" customHeight="1" outlineLevel="1">
+    <row r="29" spans="1:15" ht="88.05" customHeight="1" outlineLevel="1">
       <c r="A29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="56"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="26" t="s">
         <v>60</v>
       </c>
@@ -3081,9 +3083,9 @@
       <c r="I29" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J29" s="56"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
       <c r="N29" s="30"/>
       <c r="O29" s="30"/>
     </row>
@@ -3091,7 +3093,7 @@
       <c r="A30" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="68" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="23" t="s">
@@ -3100,7 +3102,7 @@
       <c r="D30" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="56"/>
+      <c r="E30" s="67"/>
       <c r="F30" s="26" t="s">
         <v>60</v>
       </c>
@@ -3113,23 +3115,23 @@
       <c r="I30" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="56"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
       <c r="O30" s="30"/>
     </row>
-    <row r="31" spans="1:15" ht="76" customHeight="1" outlineLevel="1">
+    <row r="31" spans="1:15" ht="76.05" customHeight="1" outlineLevel="1">
       <c r="A31" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="57"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="56"/>
+      <c r="E31" s="67"/>
       <c r="F31" s="26" t="s">
         <v>60</v>
       </c>
@@ -3142,9 +3144,9 @@
       <c r="I31" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J31" s="56"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
       <c r="O31" s="30"/>
     </row>
     <row r="32" spans="1:15" ht="156" customHeight="1" outlineLevel="1">
@@ -3178,8 +3180,8 @@
       <c r="J32" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
       <c r="O32" s="30"/>
     </row>
     <row r="33" spans="15:15">
@@ -3295,6 +3297,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="L26:L32"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="B2:J2"/>
@@ -3310,18 +3324,6 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A19:K19"/>
-    <mergeCell ref="L26:L32"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3335,22 +3337,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="84.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.08203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="84.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.09765625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5">
+    <row r="1" spans="1:3" ht="15.6">
       <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1"/>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" ht="26">
+    <row r="2" spans="1:3" s="7" customFormat="1" ht="27.6">
       <c r="A2" s="17" t="s">
         <v>52</v>
       </c>
@@ -3361,7 +3363,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="26">
+    <row r="3" spans="1:3" s="7" customFormat="1" ht="27.6">
       <c r="A3" s="35">
         <v>1</v>
       </c>
@@ -3369,10 +3371,10 @@
         <v>111</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="26">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="7" customFormat="1" ht="27.6">
       <c r="A4" s="35">
         <v>2</v>
       </c>
@@ -3380,7 +3382,7 @@
         <v>112</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3390,78 +3392,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc">
-      <UserInfo>
-        <DisplayName>BORG, Sarah Ann</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>DUVALL, Susan</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>NASH-MENDEZ, Natschja</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>RAMJAUN, Mohammad Shehzaad</DisplayName>
-        <AccountId>44</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>MACCHAGIRI, Vineel Chandra</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GAFFIELD, Mary Eluned</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>gndirangu</DisplayName>
-        <AccountId>103</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GARCIA BAENA, Ines</DisplayName>
-        <AccountId>231</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>PARWATI, Cicilia</DisplayName>
-        <AccountId>189</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>CORMAN, Constantin</DisplayName>
-        <AccountId>200</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="73389989-ac93-4f39-a9f3-2949bbf25fcc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A6DDC313EDC9A43B330D8B6305883A5" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2cd72ae978b041cce60a7f3915616b23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="73389989-ac93-4f39-a9f3-2949bbf25fcc" xmlns:ns3="51983ca6-de84-41fa-9a65-1d08ee1009bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="06feec49f89f385c2251a29dc25202a7" ns2:_="" ns3:_="">
     <xsd:import namespace="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
@@ -3710,10 +3640,93 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc">
+      <UserInfo>
+        <DisplayName>BORG, Sarah Ann</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>DUVALL, Susan</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>NASH-MENDEZ, Natschja</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>RAMJAUN, Mohammad Shehzaad</DisplayName>
+        <AccountId>44</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>MACCHAGIRI, Vineel Chandra</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GAFFIELD, Mary Eluned</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>gndirangu</DisplayName>
+        <AccountId>103</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GARCIA BAENA, Ines</DisplayName>
+        <AccountId>231</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>PARWATI, Cicilia</DisplayName>
+        <AccountId>189</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>CORMAN, Constantin</DisplayName>
+        <AccountId>200</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="73389989-ac93-4f39-a9f3-2949bbf25fcc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0A8BA-5511-40DD-A144-F9F7C2155F2F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A6B0CD-963C-48CD-859B-50F74D69C6E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
+    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3736,20 +3749,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A6B0CD-963C-48CD-859B-50F74D69C6E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0A8BA-5511-40DD-A144-F9F7C2155F2F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
-    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/input/scheduling-logic/TB DAK_scheduling logic.xlsx
+++ b/input/scheduling-logic/TB DAK_scheduling logic.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rawlanir\Documents\WHO\Github\smart-dak-tb\input\scheduling-logic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WHO\GitHub\smart-dak-tb\input\scheduling-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF2C9BB-1DFC-4B37-AAB5-BE632C63D3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C326FA-DEA1-4D3C-9CE0-D6BD1ACD9F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D729ECD-ABB9-4D06-ACD8-AACFCEA5F9F1}"/>
+    <workbookView xWindow="-13860" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3D729ECD-ABB9-4D06-ACD8-AACFCEA5F9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="75" r:id="rId1"/>
@@ -893,7 +893,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">DRAFT
+    <t xml:space="preserve">https://smart.who.int/dak-tb/v1.0.0/TB DAK_scheduling logic.xlsx
 © World Health Organization 2024. Some rights reserved. This work is available under the
 </t>
   </si>
@@ -1516,6 +1516,27 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1525,21 +1546,9 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1558,17 +1567,8 @@
     <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1652,9 +1652,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1692,7 +1692,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1798,7 +1798,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1940,7 +1940,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1953,17 +1953,15 @@
   </sheetPr>
   <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="3" style="6" customWidth="1"/>
-    <col min="2" max="2" width="31.796875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="14" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="50.296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.08203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -2035,13 +2033,13 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="2:5" ht="16.2" thickBot="1">
+    <row r="12" spans="2:5" ht="16" thickBot="1">
       <c r="B12" s="38"/>
       <c r="C12" s="9"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
     </row>
-    <row r="13" spans="2:5" ht="16.8" thickTop="1" thickBot="1">
+    <row r="13" spans="2:5" ht="16.5" thickTop="1" thickBot="1">
       <c r="B13" s="20" t="s">
         <v>2</v>
       </c>
@@ -2055,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="58.8" thickTop="1" thickBot="1">
+    <row r="14" spans="2:5" ht="59" thickTop="1" thickBot="1">
       <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
@@ -2069,7 +2067,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="16.2" thickTop="1"/>
+    <row r="15" spans="2:5" ht="16" thickTop="1"/>
     <row r="16" spans="2:5" s="12" customFormat="1" ht="29.25" customHeight="1">
       <c r="B16" s="45" t="s">
         <v>139</v>
@@ -2109,19 +2107,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="22.796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.09765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.59765625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="20.59765625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.08203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.58203125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="20.58203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="4" customWidth="1"/>
     <col min="9" max="9" width="29.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="31.59765625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="23.59765625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="40.796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="31.58203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="23.58203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="40.83203125" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2241,59 +2239,59 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14.5" style="42" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="28.796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.08203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="10" style="4" customWidth="1"/>
-    <col min="7" max="8" width="9.09765625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="26.59765625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="38.09765625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="24.59765625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="40.796875" style="4" customWidth="1"/>
+    <col min="7" max="8" width="9.08203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="26.58203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="38.08203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="24.58203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="40.83203125" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:15" ht="20.149999999999999" customHeight="1">
       <c r="A1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.149999999999999" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-    </row>
-    <row r="3" spans="1:15" s="40" customFormat="1" ht="35.1" customHeight="1">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+    </row>
+    <row r="3" spans="1:15" s="40" customFormat="1" ht="35.15" customHeight="1">
       <c r="A3" s="41" t="s">
         <v>54</v>
       </c>
@@ -2332,42 +2330,42 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="25" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:15" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:15" ht="85.05" customHeight="1" outlineLevel="1">
+    <row r="6" spans="1:15" ht="85" customHeight="1" outlineLevel="1">
       <c r="A6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -2391,20 +2389,20 @@
       <c r="I6" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="52" t="s">
         <v>120</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="52" t="s">
         <v>131</v>
       </c>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="1:15" ht="85.05" customHeight="1" outlineLevel="1">
+    <row r="7" spans="1:15" ht="85" customHeight="1" outlineLevel="1">
       <c r="A7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="23" t="s">
         <v>129</v>
       </c>
@@ -2426,16 +2424,16 @@
       <c r="I7" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="56"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="56"/>
+      <c r="L7" s="52"/>
       <c r="O7" s="30"/>
     </row>
     <row r="8" spans="1:15" ht="85.5" customHeight="1" outlineLevel="1">
       <c r="A8" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="23" t="s">
         <v>75</v>
       </c>
@@ -2457,16 +2455,16 @@
       <c r="I8" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="56"/>
+      <c r="J8" s="52"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="56"/>
+      <c r="L8" s="52"/>
       <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="85.5" customHeight="1" outlineLevel="1">
       <c r="A9" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="57"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="23" t="s">
         <v>75</v>
       </c>
@@ -2488,16 +2486,16 @@
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="56"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="56"/>
+      <c r="L9" s="52"/>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" ht="80.099999999999994" customHeight="1" outlineLevel="1">
+    <row r="10" spans="1:15" ht="80.150000000000006" customHeight="1" outlineLevel="1">
       <c r="A10" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="52" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -2521,16 +2519,16 @@
       <c r="I10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="56"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="56"/>
+      <c r="L10" s="52"/>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" ht="85.05" customHeight="1" outlineLevel="1">
+    <row r="11" spans="1:15" ht="85" customHeight="1" outlineLevel="1">
       <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="56"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="23" t="s">
         <v>75</v>
       </c>
@@ -2552,16 +2550,16 @@
       <c r="I11" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="56"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="56"/>
+      <c r="L11" s="52"/>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:15" ht="81.599999999999994" customHeight="1" outlineLevel="1">
+    <row r="12" spans="1:15" ht="81.650000000000006" customHeight="1" outlineLevel="1">
       <c r="A12" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="23" t="s">
         <v>75</v>
       </c>
@@ -2583,16 +2581,16 @@
       <c r="I12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="56"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="56"/>
+      <c r="L12" s="52"/>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:15" ht="80.55" customHeight="1" outlineLevel="1">
+    <row r="13" spans="1:15" ht="80.5" customHeight="1" outlineLevel="1">
       <c r="A13" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="57"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="23" t="s">
         <v>75</v>
       </c>
@@ -2614,12 +2612,12 @@
       <c r="I13" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="57"/>
+      <c r="J13" s="53"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="56"/>
+      <c r="L13" s="52"/>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:15" ht="145.05000000000001" customHeight="1" outlineLevel="1">
+    <row r="14" spans="1:15" ht="145" customHeight="1" outlineLevel="1">
       <c r="A14" s="23" t="s">
         <v>78</v>
       </c>
@@ -2651,14 +2649,14 @@
         <v>83</v>
       </c>
       <c r="K14" s="24"/>
-      <c r="L14" s="56"/>
+      <c r="L14" s="52"/>
       <c r="O14" s="30"/>
     </row>
     <row r="15" spans="1:15" ht="54" customHeight="1" outlineLevel="1">
       <c r="A15" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="65" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -2682,18 +2680,18 @@
       <c r="I15" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="58" t="s">
+      <c r="J15" s="51" t="s">
         <v>85</v>
       </c>
       <c r="K15" s="24"/>
-      <c r="L15" s="56"/>
+      <c r="L15" s="52"/>
       <c r="O15" s="30"/>
     </row>
-    <row r="16" spans="1:15" ht="53.1" customHeight="1" outlineLevel="1">
+    <row r="16" spans="1:15" ht="53.15" customHeight="1" outlineLevel="1">
       <c r="A16" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="62"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="23" t="s">
         <v>75</v>
       </c>
@@ -2715,16 +2713,16 @@
       <c r="I16" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="56"/>
+      <c r="J16" s="52"/>
       <c r="K16" s="24"/>
-      <c r="L16" s="56"/>
+      <c r="L16" s="52"/>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="1:15" ht="61.05" customHeight="1" outlineLevel="1">
+    <row r="17" spans="1:15" ht="61" customHeight="1" outlineLevel="1">
       <c r="A17" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="23" t="s">
         <v>75</v>
       </c>
@@ -2746,41 +2744,41 @@
       <c r="I17" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="57"/>
+      <c r="J17" s="53"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="56"/>
+      <c r="L17" s="52"/>
       <c r="O17" s="30"/>
     </row>
     <row r="18" spans="1:15" s="25" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="61"/>
     </row>
     <row r="19" spans="1:15" s="25" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
       <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:15" ht="81" customHeight="1" outlineLevel="1">
@@ -2811,11 +2809,11 @@
       <c r="I20" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="51" t="s">
         <v>101</v>
       </c>
       <c r="K20" s="31"/>
-      <c r="L20" s="58" t="s">
+      <c r="L20" s="51" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2847,11 +2845,11 @@
       <c r="I21" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="57"/>
+      <c r="J21" s="53"/>
       <c r="K21" s="31"/>
-      <c r="L21" s="56"/>
-    </row>
-    <row r="22" spans="1:15" ht="172.05" customHeight="1" outlineLevel="1">
+      <c r="L21" s="52"/>
+    </row>
+    <row r="22" spans="1:15" ht="172" customHeight="1" outlineLevel="1">
       <c r="A22" s="23" t="s">
         <v>78</v>
       </c>
@@ -2883,7 +2881,7 @@
         <v>93</v>
       </c>
       <c r="K22" s="31"/>
-      <c r="L22" s="56"/>
+      <c r="L22" s="52"/>
     </row>
     <row r="23" spans="1:15" ht="126" customHeight="1" outlineLevel="1">
       <c r="A23" s="23" t="s">
@@ -2917,47 +2915,47 @@
         <v>94</v>
       </c>
       <c r="K23" s="31"/>
-      <c r="L23" s="57"/>
+      <c r="L23" s="53"/>
     </row>
     <row r="24" spans="1:15" s="25" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="61"/>
       <c r="O24" s="30"/>
     </row>
     <row r="25" spans="1:15" s="25" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
       <c r="L25" s="33"/>
       <c r="O25" s="30"/>
     </row>
-    <row r="26" spans="1:15" ht="67.05" customHeight="1" outlineLevel="1">
+    <row r="26" spans="1:15" ht="67" customHeight="1" outlineLevel="1">
       <c r="A26" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="56" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="23" t="s">
@@ -2966,7 +2964,7 @@
       <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="56" t="s">
         <v>99</v>
       </c>
       <c r="F26" s="26" t="s">
@@ -2981,11 +2979,11 @@
       <c r="I26" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="58" t="s">
+      <c r="J26" s="51" t="s">
         <v>100</v>
       </c>
       <c r="K26" s="23"/>
-      <c r="L26" s="58" t="s">
+      <c r="L26" s="51" t="s">
         <v>133</v>
       </c>
       <c r="N26" s="30"/>
@@ -2995,14 +2993,14 @@
       <c r="A27" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="67"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="67"/>
+      <c r="E27" s="56"/>
       <c r="F27" s="26" t="s">
         <v>60</v>
       </c>
@@ -3015,17 +3013,17 @@
       <c r="I27" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="57"/>
+      <c r="J27" s="53"/>
       <c r="K27" s="24"/>
-      <c r="L27" s="56"/>
+      <c r="L27" s="52"/>
       <c r="N27" s="30"/>
       <c r="O27" s="30"/>
     </row>
-    <row r="28" spans="1:15" ht="88.05" customHeight="1" outlineLevel="1">
+    <row r="28" spans="1:15" ht="88" customHeight="1" outlineLevel="1">
       <c r="A28" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -3034,7 +3032,7 @@
       <c r="D28" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="56" t="s">
         <v>109</v>
       </c>
       <c r="F28" s="26" t="s">
@@ -3049,28 +3047,28 @@
       <c r="I28" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J28" s="67" t="s">
+      <c r="J28" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="K28" s="58" t="s">
+      <c r="K28" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="56"/>
+      <c r="L28" s="52"/>
       <c r="N28" s="30"/>
       <c r="O28" s="30"/>
     </row>
-    <row r="29" spans="1:15" ht="88.05" customHeight="1" outlineLevel="1">
+    <row r="29" spans="1:15" ht="88" customHeight="1" outlineLevel="1">
       <c r="A29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="57"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="67"/>
+      <c r="E29" s="56"/>
       <c r="F29" s="26" t="s">
         <v>60</v>
       </c>
@@ -3083,9 +3081,9 @@
       <c r="I29" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J29" s="67"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
       <c r="N29" s="30"/>
       <c r="O29" s="30"/>
     </row>
@@ -3093,7 +3091,7 @@
       <c r="A30" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="23" t="s">
@@ -3102,7 +3100,7 @@
       <c r="D30" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="67"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="26" t="s">
         <v>60</v>
       </c>
@@ -3115,23 +3113,23 @@
       <c r="I30" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="67"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
       <c r="O30" s="30"/>
     </row>
-    <row r="31" spans="1:15" ht="76.05" customHeight="1" outlineLevel="1">
+    <row r="31" spans="1:15" ht="76" customHeight="1" outlineLevel="1">
       <c r="A31" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="68"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="67"/>
+      <c r="E31" s="56"/>
       <c r="F31" s="26" t="s">
         <v>60</v>
       </c>
@@ -3144,9 +3142,9 @@
       <c r="I31" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J31" s="67"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
       <c r="O31" s="30"/>
     </row>
     <row r="32" spans="1:15" ht="156" customHeight="1" outlineLevel="1">
@@ -3180,8 +3178,8 @@
       <c r="J32" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
       <c r="O32" s="30"/>
     </row>
     <row r="33" spans="15:15">
@@ -3297,18 +3295,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L26:L32"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="B2:J2"/>
@@ -3324,6 +3310,18 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A19:K19"/>
+    <mergeCell ref="L26:L32"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3337,22 +3335,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="84.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.09765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="84.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.08203125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
+    <row r="1" spans="1:3" ht="15.5">
       <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1"/>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" ht="27.6">
+    <row r="2" spans="1:3" s="7" customFormat="1" ht="26">
       <c r="A2" s="17" t="s">
         <v>52</v>
       </c>
@@ -3363,7 +3361,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="27.6">
+    <row r="3" spans="1:3" s="7" customFormat="1" ht="26">
       <c r="A3" s="35">
         <v>1</v>
       </c>
@@ -3374,7 +3372,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="27.6">
+    <row r="4" spans="1:3" s="7" customFormat="1" ht="26">
       <c r="A4" s="35">
         <v>2</v>
       </c>
@@ -3392,6 +3390,78 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc">
+      <UserInfo>
+        <DisplayName>BORG, Sarah Ann</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>DUVALL, Susan</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>NASH-MENDEZ, Natschja</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>RAMJAUN, Mohammad Shehzaad</DisplayName>
+        <AccountId>44</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>MACCHAGIRI, Vineel Chandra</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GAFFIELD, Mary Eluned</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>gndirangu</DisplayName>
+        <AccountId>103</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GARCIA BAENA, Ines</DisplayName>
+        <AccountId>231</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>PARWATI, Cicilia</DisplayName>
+        <AccountId>189</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>CORMAN, Constantin</DisplayName>
+        <AccountId>200</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="73389989-ac93-4f39-a9f3-2949bbf25fcc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A6DDC313EDC9A43B330D8B6305883A5" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2cd72ae978b041cce60a7f3915616b23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="73389989-ac93-4f39-a9f3-2949bbf25fcc" xmlns:ns3="51983ca6-de84-41fa-9a65-1d08ee1009bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="06feec49f89f385c2251a29dc25202a7" ns2:_="" ns3:_="">
     <xsd:import namespace="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
@@ -3640,93 +3710,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc">
-      <UserInfo>
-        <DisplayName>BORG, Sarah Ann</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>DUVALL, Susan</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>NASH-MENDEZ, Natschja</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>RAMJAUN, Mohammad Shehzaad</DisplayName>
-        <AccountId>44</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>MACCHAGIRI, Vineel Chandra</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GAFFIELD, Mary Eluned</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>gndirangu</DisplayName>
-        <AccountId>103</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GARCIA BAENA, Ines</DisplayName>
-        <AccountId>231</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>PARWATI, Cicilia</DisplayName>
-        <AccountId>189</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>CORMAN, Constantin</DisplayName>
-        <AccountId>200</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="73389989-ac93-4f39-a9f3-2949bbf25fcc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A6B0CD-963C-48CD-859B-50F74D69C6E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0A8BA-5511-40DD-A144-F9F7C2155F2F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
-    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3749,9 +3736,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D0A8BA-5511-40DD-A144-F9F7C2155F2F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A6B0CD-963C-48CD-859B-50F74D69C6E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
+    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
